--- a/script-files/integral.xlsx
+++ b/script-files/integral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJ\phitter\dev\phitter-kernel\script-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5328C687-A477-4B7E-B951-CAF87491DF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2685CF-7705-4DE1-AE7D-50A9D7E012E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2274AE7C-F812-4793-B5BD-6C01CD9BACC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2274AE7C-F812-4793-B5BD-6C01CD9BACC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07FE16A-9708-412F-AD17-784FA81D1282}">
   <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
